--- a/hola.xlsx
+++ b/hola.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>MES</t>
   </si>
@@ -24,6 +24,9 @@
     <t>MIS</t>
   </si>
   <si>
+    <t>RIF</t>
+  </si>
+  <si>
     <t>NOMBRE DEL CLIENTE</t>
   </si>
   <si>
@@ -117,22 +120,7 @@
     <t>Cross Selling</t>
   </si>
   <si>
-    <t>Fecha de operacion</t>
-  </si>
-  <si>
-    <t>Razon Social</t>
-  </si>
-  <si>
-    <t>RIF</t>
-  </si>
-  <si>
-    <t>Monto de la operacion</t>
-  </si>
-  <si>
-    <t>Comisión</t>
-  </si>
-  <si>
-    <t>Codigo Banco Origen</t>
+    <t>Jose Prieto</t>
   </si>
   <si>
     <t>Mes</t>
@@ -568,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B8:AN8"/>
+  <dimension ref="B8:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
@@ -579,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="8" spans="2:40">
+    <row r="8" spans="2:35">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,20 +670,13 @@
       <c r="AI8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+    </row>
+    <row r="9" spans="2:35">
+      <c r="C9">
+        <v>1234</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -718,106 +699,106 @@
   <sheetData>
     <row r="5" spans="2:35">
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="U5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -840,100 +821,100 @@
   <sheetData>
     <row r="8" spans="2:33">
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
